--- a/gremio.xlsx
+++ b/gremio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Bosonic\Project\Gemini\HardwareApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF42AD7F-DDCE-4509-A274-9CC5A731DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FADC19-68A0-4CB9-93DB-A37F616F9A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E04CBC6-E4DA-47F7-A125-1027F63B69F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E04CBC6-E4DA-47F7-A125-1027F63B69F3}"/>
   </bookViews>
   <sheets>
     <sheet name="principal" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1468">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -3301,6 +3301,1137 @@
   </si>
   <si>
     <t>Pilas/Baterias</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/DVIHDMI.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/MA530.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/UB500PLUS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS-300N.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS04US.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS-m200C.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS-100U.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS-GX580U.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HS-810BT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/HS-m300.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/X-2670BL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/X-2670RJ.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/X-2670RS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/NG-55VL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/probatery7a.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/bobinakelyx.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cableredSFX.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablered.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/TL-ANT24EC5S.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablecellPlano.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cabletypec.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/patch05.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cable220.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablecellADATA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/NUMERICOpad110.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/UA520C.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/BASEKUZO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/BASESTAND.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablesatat.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablesataP.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cableshdmi.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cableshdmi3.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablesDISPLAYPORT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cable220trebol.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cableusbAA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cablesVgaFMM.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/cableusb.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/TAPOC100.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/camara/TAPOC200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/camara/TAPOC510w.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKASUS19V237A4x135.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKTOSHIBA-19V3-42A.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKHPpinfino-azul.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKACER-19V3-42A3x1.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKACER-19V3-42A.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKACERmini-19V1-58A.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKDELL19v334a45x3.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKDELL195v334a74x5.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKLENOVOtypec.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKLENOVO-20V3-105X4.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKLENOVO-20V3-25A55.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORNOTEBOOKLENOVO-20V3-4A17.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORSAMS14V.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/CARGADORLG12V.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/SATA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/CASEHISEMIM26.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/CASEHISEMINETAC.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/CASEHISEMI.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T544120.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T544320.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T544420.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T544220.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T504420.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T504220.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T504320.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/T504120.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T664220-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T664320-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T664420-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T664120-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T673220-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T673520-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/T673320-AL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/epson734.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/epson133A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/epson732.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/EPSONBOTELLAPWT.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/HPBOTELLAGLOBAL.JPG</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/BT5001BKBOTELLA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/BT5001C.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/BT5001M.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/BT5001Y.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/generalepsonPowertec.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/hpC564.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/hp670c.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/globaltinta.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/H-302.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/rj45.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/rj45GLC.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/rj45GLCCAT6.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/AM4-3000g.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN33200gO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN5300GO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN5600G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN3600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN5500.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN5700.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN5700G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN8400F.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN8500g.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN8600g.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN7600X.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN7700.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN7700x.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN8700F.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN8700G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/amd/RYZEN7900X.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX80701G6405.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX80715G7400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071512100FSRL63.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8070110105.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071512100.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071514100.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8070110400F.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8070110400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8070812400f.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8070812400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071512700.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071512700K.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071514400F.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071514400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071514700.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071512900KF.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/intel/BX8071514900F.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/discCARRY256G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/discCARRY1TB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/C100120H.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/HISEMI128nvme.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/N535S240.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/PATRIOT240.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/ssda400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/HISEMI256nvme.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/GREENSN350NVMEG3.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/ssdV300480.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/SNVS-500G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/N5351TB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/N535S960.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd1000SEANAS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd2000WESTERNDIGITAL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd2000SEA2TERA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/WD40EZRZ.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/WD40EFPX.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd4000WESTERNDIGITALPURPLE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd8000WESTERNDIGITALPURPLE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/hd8000SEA8TERA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/WD80EFPX.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/disco/WD221PURP.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/LP140WH4.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/FORZA1202N.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/FORZA902A900A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/TRVMICROVOLT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/fuente5v.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/fuenteKELYX.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/fuente600MAGNU.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/RAIDMAX550.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/ARXGP.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/AUREOX600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/AUREOX650B.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/GP-P650SS%20ICE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/GP-P750BS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/MT-K735KIT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/magnutech436B.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/magnutech435r.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/VIEWMAX180.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/VIEWMAX270.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/GABSLIMPERFORMANCE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/ARX300G.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/RAPTORVORTEXRGB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/RAPTORblazeRGB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/JGRASA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/JGRASAa90.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/graba.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/grabaLITEON.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/HALYXHUB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/GENIUSUH400.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/IMPREOCOMWIFI.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/M111A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/HL1200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/HL1212W.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/HLL2320DW.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/HLL2360DW.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/jack01.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/jack06.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/OCBS-LA11.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/maletinTRUST.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/E6010N.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/A520M-APRO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/A520M-A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/A520M-k.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/PROA620M-E.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/PRIMEA620M-K.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/A620MH.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/msiH510M-B.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/h510MR.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/h510MK.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/mb/H610MK.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/MARK8GBDDR3.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKSEMI8ddr42666.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKSEMI16ddr4D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKSEMI16ddr4D3600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/CMK16GX5M1B5600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKSEMD16ddr5D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/kingston32gb5600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/kingston16gb5600BEATS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sdhiksemi32.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sd32MICRO10.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/hiSEMI64.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sd6410KINGSTON.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sd64king.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sD256KINGSTON.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sD128KINGSTON4k.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/SODIMHIKVISION4GB1600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sodimmHIKVISION8GB1600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sodimmCRUCIAL8gb1600.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sodimmLEXAR8gb3200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKVIISONSODIM016ddr4.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/sodimm.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/MICO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/lcd/DS-D5024FN.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/lcd/VG249QL3A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/lcd/VA27EHF-J.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/mouse.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/DX-120.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/mouselogitechm90.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MICROTRAVELERS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MICROTRAVELER.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/NX7000.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/NX7009.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/NX7123.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/M170.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/TRUSTGTX108.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/TRUSTRIXA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MASTERMOUSES.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/EPSONL3210.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/EPSONL3250.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/EPSONL3560.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/DCP-1617NW.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/DCP-L2540dw.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/DCPT220.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/impre/DCP-T420W.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/LR515AMN8.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/15ABR8.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/V15R37320U.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/m13060.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/X515EA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/90NB0ZR2-M02NY0.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G68P1KF6I2X0XX5FXC20.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G52J3KFGIFDC140.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G47R3RFEI9XGXX4FXC20.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G66R6RFEIAXGXX5FXC20.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G68P2JFEI2X0XX5FXC20.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/G52J7IFGIFDC150.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/GM15Z13.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/HP250I313VA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/HP255r37330u.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/notebook/HP250i51334uVA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/PADGMP1.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/BIGFOOT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/G-WP100S.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/G-600HRGB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/globalpapel100x150.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/globalpapel100x180.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/hp/powerpapel.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/S2027.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/GENIUS180W.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/SP-Q160.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/SP-U125.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/GENIUS280.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/JAVVRGBSET20GXT606.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/GENIUS915BT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/patchKROME.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/B50U-CXAMD.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/B50U-CXINTEL.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKS64GBM200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/HIKVISION64GB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/pen64dtx.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/memo/pen128dtxON.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/pilasx1-2032.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/pilas2032murata.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/cable/PINZAglcstrip003.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/NW150US.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MU6H.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MW300UH.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/T2E.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-TL-WN823n.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/T2UNANO.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/T3U.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-WN725N.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TX10UB.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TX20Unano.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/USBREDUE300.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/USBREDUE200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/USBREDUE300c.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TG-3468.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/sonido/he280.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/mediapointer2.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/rackglc.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-WA850RE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MW300RE.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/H30.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MW302R.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/DS3WR3N.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MW305R.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/MW325R.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-WR840N2ANT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/EC220-F5.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-C50AC750.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/EX141.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/ARCHERC86.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/EX511.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/ROSETA2PORT.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/RAP-SILLA-R1-GRIS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/gab/DK-925BK.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SF1005D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SF1008D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SF1016D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SG1005D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/DGS-1008A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SF1024.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/red/TL-SG-1024D.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/IT-F22.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/%20varios/IT-TS215V.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/IT-BBS7.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/%20varios/IT-TSE44.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/IT-TSSE42.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/IT-US102V.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/IT-DBGS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/soft/pandadomeesential.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/MONOROSA.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/soft/win11HOME.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/soft/win11pro.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/tabletI608x.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/tabletMG715.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/KB-US9851S.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/GENIUSKB116.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/K120.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/GXK7.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/SLIMC230B.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/GENIUS820.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/LUXE110.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/GENIUS7230.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/K207-S.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/KM100se.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/KMG20BKCOMBOWLS.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/KM8101.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MK220.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MK235.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/MK270.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/TRUSTQOBY.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/knucker.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/powertectoner.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/NEXTtoner.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/PB211al.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/globaltoner.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/globaltoner.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/HIK650.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/HIK1000.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/HIK2000.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/tecla/FORZA1000A.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/fan1200.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/fansamd.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/FALCONAS01.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/varios/GAMEMAX120.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/vga/GF210MSI.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/vga/RX6400SHAOC.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/vga/RX7600pulsegamming.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/vga/VENTUS5060.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/vga/ZOTAC5060.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/camara/FACECAM1000X.jpg</t>
+  </si>
+  <si>
+    <t>http://190.183.223.6/gold/images/camara/WEBKELYX.jpg</t>
+  </si>
+  <si>
+    <t>URL_EXTRA</t>
+  </si>
+  <si>
+    <t>https://www.geniusnet.com/upload/es/common/PIC_2024123008_0ed916376.webp</t>
+  </si>
+  <si>
+    <t>https://static.tp-link.com/upload/image-line/UA520C_UN_1.0_overview_01_normal_20241015064352y.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_824855-MLA96663164749_102025-F.webp</t>
+  </si>
+  <si>
+    <t>https://d1gb7gicmr8iau.cloudfront.net/fit-in/1200x900/Media/Images/Product/Visual/20104_pictures_product_visual_1.png</t>
   </si>
 </sst>
 </file>
@@ -3392,7 +4523,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3429,6 +4560,12 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3746,11 +4883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D719F-26D2-4205-951E-0F14CC8D38CB}">
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:K559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -3764,10 +4903,12 @@
     <col min="7" max="7" width="5.6640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="11" customWidth="1"/>
     <col min="9" max="9" width="23" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="23" style="14" customWidth="1"/>
+    <col min="11" max="11" width="23" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3795,8 +4936,14 @@
       <c r="I1" s="10" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -3825,8 +4972,14 @@
       <c r="I2" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -3855,8 +5008,14 @@
       <c r="I3" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -3885,8 +5044,11 @@
       <c r="I5" s="11" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="14" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -3915,8 +5077,11 @@
       <c r="I6" s="11" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="14" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -3945,8 +5110,11 @@
       <c r="I7" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="14" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -3975,8 +5143,11 @@
       <c r="I8" s="11" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -4005,8 +5176,11 @@
       <c r="I9" s="11" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="14" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -4035,8 +5209,11 @@
       <c r="I11" s="11" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="14" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
@@ -4065,8 +5242,11 @@
       <c r="I14" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
@@ -4095,8 +5275,11 @@
       <c r="I15" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="14" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -4125,8 +5308,11 @@
       <c r="I16" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="14" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
@@ -4155,8 +5341,11 @@
       <c r="I17" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="14" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>30</v>
       </c>
@@ -4185,8 +5374,11 @@
       <c r="I18" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="14" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -4215,8 +5407,11 @@
       <c r="I19" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="14" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
@@ -4245,8 +5440,11 @@
       <c r="I20" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="14" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
@@ -4275,8 +5473,11 @@
       <c r="I21" s="11" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="14" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
@@ -4305,8 +5506,11 @@
       <c r="I22" s="11" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="14" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
@@ -4335,8 +5539,14 @@
       <c r="I23" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -4365,8 +5575,14 @@
       <c r="I24" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
@@ -4395,8 +5611,11 @@
       <c r="I25" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="14" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +5644,11 @@
       <c r="I26" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="14" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>48</v>
       </c>
@@ -4455,8 +5677,11 @@
       <c r="I27" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>50</v>
       </c>
@@ -4485,8 +5710,11 @@
       <c r="I30" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>52</v>
       </c>
@@ -4515,8 +5743,11 @@
       <c r="I31" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="14" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>54</v>
       </c>
@@ -4545,8 +5776,11 @@
       <c r="I32" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="14" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -4575,8 +5809,11 @@
       <c r="I33" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>58</v>
       </c>
@@ -4605,8 +5842,11 @@
       <c r="I34" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>60</v>
       </c>
@@ -4635,8 +5875,11 @@
       <c r="I35" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>62</v>
       </c>
@@ -4665,8 +5908,11 @@
       <c r="I36" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>64</v>
       </c>
@@ -4695,8 +5941,11 @@
       <c r="I37" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>66</v>
       </c>
@@ -4725,8 +5974,11 @@
       <c r="I38" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
@@ -4755,8 +6007,11 @@
       <c r="I39" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>70</v>
       </c>
@@ -4785,8 +6040,11 @@
       <c r="I40" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>72</v>
       </c>
@@ -4815,8 +6073,11 @@
       <c r="I41" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="14" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>74</v>
       </c>
@@ -4845,8 +6106,11 @@
       <c r="I42" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="14" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>76</v>
       </c>
@@ -4875,8 +6139,11 @@
       <c r="I43" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="14" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>78</v>
       </c>
@@ -4905,8 +6172,11 @@
       <c r="I44" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>80</v>
       </c>
@@ -4935,8 +6205,11 @@
       <c r="I45" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>82</v>
       </c>
@@ -4965,8 +6238,11 @@
       <c r="I46" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="14" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>84</v>
       </c>
@@ -4995,8 +6271,11 @@
       <c r="I47" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>86</v>
       </c>
@@ -5025,8 +6304,11 @@
       <c r="I48" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>88</v>
       </c>
@@ -5055,8 +6337,11 @@
       <c r="I49" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="14" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>89</v>
       </c>
@@ -5085,8 +6370,11 @@
       <c r="I50" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="14" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>91</v>
       </c>
@@ -5115,8 +6403,11 @@
       <c r="I51" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>93</v>
       </c>
@@ -5145,8 +6436,11 @@
       <c r="I52" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>95</v>
       </c>
@@ -5175,8 +6469,11 @@
       <c r="I53" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="14" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>97</v>
       </c>
@@ -5205,8 +6502,11 @@
       <c r="I54" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="14" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>99</v>
       </c>
@@ -5235,8 +6535,11 @@
       <c r="I55" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="14" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>101</v>
       </c>
@@ -5265,8 +6568,11 @@
       <c r="I56" s="11" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="14" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>103</v>
       </c>
@@ -5295,8 +6601,11 @@
       <c r="I57" s="11" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="14" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>105</v>
       </c>
@@ -5325,8 +6634,11 @@
       <c r="I59" s="11" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="14" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>107</v>
       </c>
@@ -5355,8 +6667,11 @@
       <c r="I60" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="14" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>109</v>
       </c>
@@ -5385,8 +6700,11 @@
       <c r="I61" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="14" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>111</v>
       </c>
@@ -5415,8 +6733,11 @@
       <c r="I62" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="14" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>113</v>
       </c>
@@ -5445,8 +6766,11 @@
       <c r="I63" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="14" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>115</v>
       </c>
@@ -5475,8 +6799,11 @@
       <c r="I64" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="14" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>117</v>
       </c>
@@ -5505,8 +6832,11 @@
       <c r="I65" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="14" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>119</v>
       </c>
@@ -5535,8 +6865,11 @@
       <c r="I66" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="14" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>121</v>
       </c>
@@ -5565,8 +6898,11 @@
       <c r="I67" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="14" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>123</v>
       </c>
@@ -5595,8 +6931,11 @@
       <c r="I68" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="14" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>125</v>
       </c>
@@ -5625,8 +6964,11 @@
       <c r="I69" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="14" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>127</v>
       </c>
@@ -5655,8 +6997,11 @@
       <c r="I70" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="14" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>129</v>
       </c>
@@ -5685,8 +7030,11 @@
       <c r="I71" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="14" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>131</v>
       </c>
@@ -5715,8 +7063,11 @@
       <c r="I72" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="14" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>133</v>
       </c>
@@ -5745,8 +7096,11 @@
       <c r="I73" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>135</v>
       </c>
@@ -5775,8 +7129,11 @@
       <c r="I74" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>137</v>
       </c>
@@ -5805,8 +7162,11 @@
       <c r="I75" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="14" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>139</v>
       </c>
@@ -5835,8 +7195,11 @@
       <c r="I76" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="14" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>141</v>
       </c>
@@ -5865,8 +7228,11 @@
       <c r="I77" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="14" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>143</v>
       </c>
@@ -5895,8 +7261,11 @@
       <c r="I78" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="14" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>145</v>
       </c>
@@ -5925,8 +7294,11 @@
       <c r="I79" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="14" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>147</v>
       </c>
@@ -5955,8 +7327,11 @@
       <c r="I80" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="14" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>149</v>
       </c>
@@ -5985,8 +7360,11 @@
       <c r="I81" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="14" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>151</v>
       </c>
@@ -6015,8 +7393,11 @@
       <c r="I82" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="14" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>153</v>
       </c>
@@ -6045,8 +7426,11 @@
       <c r="I83" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="14" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>155</v>
       </c>
@@ -6075,8 +7459,11 @@
       <c r="I84" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="14" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>157</v>
       </c>
@@ -6105,8 +7492,11 @@
       <c r="I85" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="14" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>159</v>
       </c>
@@ -6135,8 +7525,11 @@
       <c r="I86" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="14" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>161</v>
       </c>
@@ -6165,8 +7558,11 @@
       <c r="I87" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="14" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>163</v>
       </c>
@@ -6195,8 +7591,11 @@
       <c r="I88" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>165</v>
       </c>
@@ -6225,8 +7624,11 @@
       <c r="I89" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>167</v>
       </c>
@@ -6255,8 +7657,11 @@
       <c r="I90" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>169</v>
       </c>
@@ -6285,8 +7690,11 @@
       <c r="I91" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>171</v>
       </c>
@@ -6315,8 +7723,11 @@
       <c r="I92" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="14" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>173</v>
       </c>
@@ -6345,8 +7756,11 @@
       <c r="I93" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="14" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>175</v>
       </c>
@@ -6375,8 +7789,11 @@
       <c r="I94" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="14" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>177</v>
       </c>
@@ -6405,8 +7822,11 @@
       <c r="I95" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="14" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>179</v>
       </c>
@@ -6435,8 +7855,11 @@
       <c r="I96" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="14" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>181</v>
       </c>
@@ -6465,8 +7888,11 @@
       <c r="I97" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>183</v>
       </c>
@@ -6495,8 +7921,11 @@
       <c r="I98" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>185</v>
       </c>
@@ -6525,8 +7954,11 @@
       <c r="I99" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>187</v>
       </c>
@@ -6555,8 +7987,11 @@
       <c r="I100" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="14" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>189</v>
       </c>
@@ -6585,8 +8020,11 @@
       <c r="I101" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="14" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>191</v>
       </c>
@@ -6615,8 +8053,11 @@
       <c r="I102" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="14" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>193</v>
       </c>
@@ -6645,8 +8086,11 @@
       <c r="I103" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="14" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>195</v>
       </c>
@@ -6675,8 +8119,11 @@
       <c r="I104" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>197</v>
       </c>
@@ -6705,8 +8152,11 @@
       <c r="I105" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>199</v>
       </c>
@@ -6735,8 +8185,11 @@
       <c r="I106" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>201</v>
       </c>
@@ -6765,8 +8218,11 @@
       <c r="I107" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>203</v>
       </c>
@@ -6795,8 +8251,11 @@
       <c r="I108" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>205</v>
       </c>
@@ -6825,8 +8284,11 @@
       <c r="I109" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>207</v>
       </c>
@@ -6855,8 +8317,11 @@
       <c r="I110" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>209</v>
       </c>
@@ -6885,8 +8350,11 @@
       <c r="I111" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>211</v>
       </c>
@@ -6915,8 +8383,11 @@
       <c r="I112" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>213</v>
       </c>
@@ -6945,8 +8416,11 @@
       <c r="I113" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>215</v>
       </c>
@@ -6975,8 +8449,11 @@
       <c r="I114" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>217</v>
       </c>
@@ -7005,8 +8482,11 @@
       <c r="I115" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>219</v>
       </c>
@@ -7035,8 +8515,11 @@
       <c r="I116" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>221</v>
       </c>
@@ -7065,8 +8548,11 @@
       <c r="I117" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>223</v>
       </c>
@@ -7095,8 +8581,11 @@
       <c r="I118" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>225</v>
       </c>
@@ -7125,8 +8614,11 @@
       <c r="I119" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>227</v>
       </c>
@@ -7155,8 +8647,11 @@
       <c r="I121" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>229</v>
       </c>
@@ -7185,8 +8680,11 @@
       <c r="I122" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>231</v>
       </c>
@@ -7215,8 +8713,11 @@
       <c r="I123" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>233</v>
       </c>
@@ -7245,8 +8746,11 @@
       <c r="I124" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>235</v>
       </c>
@@ -7275,8 +8779,11 @@
       <c r="I125" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>237</v>
       </c>
@@ -7305,8 +8812,11 @@
       <c r="I126" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>239</v>
       </c>
@@ -7335,8 +8845,11 @@
       <c r="I127" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>241</v>
       </c>
@@ -7365,8 +8878,11 @@
       <c r="I128" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>243</v>
       </c>
@@ -7395,8 +8911,11 @@
       <c r="I129" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>245</v>
       </c>
@@ -7425,8 +8944,11 @@
       <c r="I130" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>247</v>
       </c>
@@ -7455,8 +8977,11 @@
       <c r="I131" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>249</v>
       </c>
@@ -7485,8 +9010,11 @@
       <c r="I132" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>251</v>
       </c>
@@ -7515,8 +9043,11 @@
       <c r="I133" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>253</v>
       </c>
@@ -7545,8 +9076,11 @@
       <c r="I135" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="14" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>255</v>
       </c>
@@ -7575,8 +9109,11 @@
       <c r="I136" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="14" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>257</v>
       </c>
@@ -7605,8 +9142,11 @@
       <c r="I137" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>259</v>
       </c>
@@ -7635,8 +9175,11 @@
       <c r="I138" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>261</v>
       </c>
@@ -7665,8 +9208,11 @@
       <c r="I139" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>263</v>
       </c>
@@ -7695,8 +9241,11 @@
       <c r="I140" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>265</v>
       </c>
@@ -7725,8 +9274,11 @@
       <c r="I141" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>267</v>
       </c>
@@ -7755,8 +9307,11 @@
       <c r="I142" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>269</v>
       </c>
@@ -7785,8 +9340,11 @@
       <c r="I143" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>271</v>
       </c>
@@ -7815,8 +9373,11 @@
       <c r="I144" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>273</v>
       </c>
@@ -7845,8 +9406,11 @@
       <c r="I145" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>275</v>
       </c>
@@ -7875,8 +9439,11 @@
       <c r="I146" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>277</v>
       </c>
@@ -7905,8 +9472,11 @@
       <c r="I147" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>279</v>
       </c>
@@ -7935,8 +9505,11 @@
       <c r="I148" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>281</v>
       </c>
@@ -7965,8 +9538,11 @@
       <c r="I149" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>283</v>
       </c>
@@ -7995,8 +9571,11 @@
       <c r="I150" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>285</v>
       </c>
@@ -8025,8 +9604,11 @@
       <c r="I151" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>287</v>
       </c>
@@ -8055,8 +9637,11 @@
       <c r="I152" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>289</v>
       </c>
@@ -8085,8 +9670,11 @@
       <c r="I153" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="14" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>291</v>
       </c>
@@ -8115,8 +9703,11 @@
       <c r="I154" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>293</v>
       </c>
@@ -8145,8 +9736,11 @@
       <c r="I155" s="11" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="14" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>295</v>
       </c>
@@ -8175,8 +9769,11 @@
       <c r="I156" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="14" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>297</v>
       </c>
@@ -8205,8 +9802,11 @@
       <c r="I157" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="14" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>299</v>
       </c>
@@ -8235,8 +9835,11 @@
       <c r="I158" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>301</v>
       </c>
@@ -8265,8 +9868,11 @@
       <c r="I159" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="14" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>303</v>
       </c>
@@ -8295,8 +9901,11 @@
       <c r="I160" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="14" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>305</v>
       </c>
@@ -8325,8 +9934,11 @@
       <c r="I162" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="14" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>307</v>
       </c>
@@ -8355,8 +9967,11 @@
       <c r="I163" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="14" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>309</v>
       </c>
@@ -8385,8 +10000,11 @@
       <c r="I164" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="14" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>311</v>
       </c>
@@ -8415,8 +10033,11 @@
       <c r="I165" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="14" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>313</v>
       </c>
@@ -8445,8 +10066,11 @@
       <c r="I166" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="14" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>315</v>
       </c>
@@ -8475,8 +10099,11 @@
       <c r="I167" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="14" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>317</v>
       </c>
@@ -8505,8 +10132,11 @@
       <c r="I168" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="14" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>319</v>
       </c>
@@ -8535,8 +10165,11 @@
       <c r="I169" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="14" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>321</v>
       </c>
@@ -8565,8 +10198,11 @@
       <c r="I170" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>323</v>
       </c>
@@ -8595,8 +10231,11 @@
       <c r="I171" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="14" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>325</v>
       </c>
@@ -8625,8 +10264,11 @@
       <c r="I172" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="14" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>327</v>
       </c>
@@ -8655,8 +10297,11 @@
       <c r="I173" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="14" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>329</v>
       </c>
@@ -8685,8 +10330,11 @@
       <c r="I174" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="14" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>331</v>
       </c>
@@ -8715,8 +10363,11 @@
       <c r="I175" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="14" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>333</v>
       </c>
@@ -8745,8 +10396,11 @@
       <c r="I176" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="14" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>335</v>
       </c>
@@ -8775,8 +10429,11 @@
       <c r="I177" s="11" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="14" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>337</v>
       </c>
@@ -8805,8 +10462,11 @@
       <c r="I178" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="14" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>339</v>
       </c>
@@ -8835,8 +10495,11 @@
       <c r="I179" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="14" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>341</v>
       </c>
@@ -8865,8 +10528,11 @@
       <c r="I180" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="14" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>343</v>
       </c>
@@ -8895,8 +10561,11 @@
       <c r="I181" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="14" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>345</v>
       </c>
@@ -8925,8 +10594,11 @@
       <c r="I182" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>347</v>
       </c>
@@ -8955,8 +10627,11 @@
       <c r="I183" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="14" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>349</v>
       </c>
@@ -8985,8 +10660,11 @@
       <c r="I184" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="14" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>351</v>
       </c>
@@ -9015,8 +10693,11 @@
       <c r="I185" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>353</v>
       </c>
@@ -9045,8 +10726,11 @@
       <c r="I186" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="14" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>355</v>
       </c>
@@ -9075,8 +10759,11 @@
       <c r="I187" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="14" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>357</v>
       </c>
@@ -9104,8 +10791,11 @@
       <c r="I188" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="14" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>359</v>
       </c>
@@ -9134,8 +10824,11 @@
       <c r="I189" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="14" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
         <v>361</v>
       </c>
@@ -9164,8 +10857,11 @@
       <c r="I190" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="14" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>363</v>
       </c>
@@ -9194,8 +10890,11 @@
       <c r="I191" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="14" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>365</v>
       </c>
@@ -9224,8 +10923,11 @@
       <c r="I192" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>367</v>
       </c>
@@ -9254,8 +10956,11 @@
       <c r="I193" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="14" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>369</v>
       </c>
@@ -9284,8 +10989,11 @@
       <c r="I194" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="14" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>371</v>
       </c>
@@ -9314,8 +11022,11 @@
       <c r="I195" s="11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="14" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>373</v>
       </c>
@@ -9344,8 +11055,11 @@
       <c r="I196" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="14" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>375</v>
       </c>
@@ -9374,8 +11088,11 @@
       <c r="I198" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="14" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>377</v>
       </c>
@@ -9404,8 +11121,11 @@
       <c r="I200" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="14" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>379</v>
       </c>
@@ -9434,8 +11154,11 @@
       <c r="I201" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="14" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>381</v>
       </c>
@@ -9464,8 +11187,11 @@
       <c r="I202" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="14" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
         <v>383</v>
       </c>
@@ -9494,8 +11220,11 @@
       <c r="I203" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="14" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>385</v>
       </c>
@@ -9524,8 +11253,11 @@
       <c r="I204" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="14" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
         <v>387</v>
       </c>
@@ -9554,8 +11286,11 @@
       <c r="I206" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="14" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
         <v>389</v>
       </c>
@@ -9584,8 +11319,11 @@
       <c r="I207" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="14" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
         <v>391</v>
       </c>
@@ -9614,8 +11352,11 @@
       <c r="I208" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="14" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
         <v>393</v>
       </c>
@@ -9644,8 +11385,11 @@
       <c r="I209" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="14" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
         <v>395</v>
       </c>
@@ -9674,8 +11418,11 @@
       <c r="I210" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="14" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
         <v>397</v>
       </c>
@@ -9704,8 +11451,11 @@
       <c r="I211" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="14" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
         <v>399</v>
       </c>
@@ -9734,8 +11484,11 @@
       <c r="I212" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="14" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
         <v>401</v>
       </c>
@@ -9764,8 +11517,11 @@
       <c r="I213" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="14" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>403</v>
       </c>
@@ -9794,8 +11550,11 @@
       <c r="I214" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="14" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>405</v>
       </c>
@@ -9824,8 +11583,11 @@
       <c r="I215" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="14" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>407</v>
       </c>
@@ -9854,8 +11616,11 @@
       <c r="I216" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="14" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>409</v>
       </c>
@@ -9884,8 +11649,11 @@
       <c r="I217" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="14" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>411</v>
       </c>
@@ -9914,8 +11682,11 @@
       <c r="I218" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="14" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>413</v>
       </c>
@@ -9944,8 +11715,11 @@
       <c r="I219" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="14" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>415</v>
       </c>
@@ -9974,8 +11748,11 @@
       <c r="I220" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="14" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>417</v>
       </c>
@@ -10004,8 +11781,11 @@
       <c r="I221" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="14" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
         <v>419</v>
       </c>
@@ -10034,8 +11814,11 @@
       <c r="I222" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="14" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>421</v>
       </c>
@@ -10064,8 +11847,11 @@
       <c r="I223" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" s="14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
         <v>423</v>
       </c>
@@ -10094,8 +11880,11 @@
       <c r="I224" s="11" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" s="14" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
         <v>425</v>
       </c>
@@ -10124,8 +11913,11 @@
       <c r="I225" s="11" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="14" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
         <v>427</v>
       </c>
@@ -10154,8 +11946,11 @@
       <c r="I226" s="11" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" s="14" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>429</v>
       </c>
@@ -10184,8 +11979,11 @@
       <c r="I227" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
         <v>431</v>
       </c>
@@ -10214,8 +12012,11 @@
       <c r="I228" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="14" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>433</v>
       </c>
@@ -10244,8 +12045,11 @@
       <c r="I230" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="14" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
         <v>435</v>
       </c>
@@ -10274,8 +12078,11 @@
       <c r="I231" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="14" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>437</v>
       </c>
@@ -10304,8 +12111,11 @@
       <c r="I232" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="14" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>439</v>
       </c>
@@ -10334,8 +12144,11 @@
       <c r="I233" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="14" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>441</v>
       </c>
@@ -10364,8 +12177,11 @@
       <c r="I234" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="14" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>443</v>
       </c>
@@ -10394,8 +12210,11 @@
       <c r="I235" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>445</v>
       </c>
@@ -10424,8 +12243,11 @@
       <c r="I236" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>447</v>
       </c>
@@ -10454,8 +12276,11 @@
       <c r="I237" s="11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="14" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>449</v>
       </c>
@@ -10484,8 +12309,11 @@
       <c r="I239" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>451</v>
       </c>
@@ -10514,8 +12342,11 @@
       <c r="I240" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" s="14" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
         <v>453</v>
       </c>
@@ -10544,8 +12375,11 @@
       <c r="I241" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" s="14" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
         <v>455</v>
       </c>
@@ -10574,8 +12408,11 @@
       <c r="I242" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" s="14" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
         <v>457</v>
       </c>
@@ -10604,8 +12441,11 @@
       <c r="I243" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" s="14" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
         <v>459</v>
       </c>
@@ -10634,8 +12474,11 @@
       <c r="I244" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" s="14" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
         <v>461</v>
       </c>
@@ -10664,8 +12507,11 @@
       <c r="I246" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" s="14" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
         <v>463</v>
       </c>
@@ -10694,8 +12540,11 @@
       <c r="I247" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" s="14" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
         <v>465</v>
       </c>
@@ -10724,8 +12573,11 @@
       <c r="I248" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" s="14" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
         <v>467</v>
       </c>
@@ -10754,8 +12606,11 @@
       <c r="I250" s="11" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
         <v>469</v>
       </c>
@@ -10784,8 +12639,11 @@
       <c r="I251" s="11" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" s="14" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
         <v>471</v>
       </c>
@@ -10814,8 +12672,11 @@
       <c r="I252" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" s="14" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
         <v>473</v>
       </c>
@@ -10844,8 +12705,11 @@
       <c r="I253" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" s="14" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
         <v>475</v>
       </c>
@@ -10874,8 +12738,11 @@
       <c r="I254" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
         <v>477</v>
       </c>
@@ -10904,8 +12771,11 @@
       <c r="I255" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
         <v>479</v>
       </c>
@@ -10934,8 +12804,11 @@
       <c r="I256" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" s="14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
         <v>481</v>
       </c>
@@ -10964,8 +12837,11 @@
       <c r="I257" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" s="14" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
         <v>483</v>
       </c>
@@ -10994,8 +12870,11 @@
       <c r="I258" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" s="14" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
         <v>485</v>
       </c>
@@ -11024,8 +12903,11 @@
       <c r="I259" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" s="14" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
         <v>487</v>
       </c>
@@ -11054,8 +12936,11 @@
       <c r="I260" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" s="14" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
         <v>489</v>
       </c>
@@ -11084,8 +12969,11 @@
       <c r="I261" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" s="14" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
         <v>491</v>
       </c>
@@ -11114,8 +13002,11 @@
       <c r="I262" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" s="14" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
         <v>493</v>
       </c>
@@ -11144,8 +13035,11 @@
       <c r="I263" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" s="14" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
         <v>495</v>
       </c>
@@ -11174,8 +13068,11 @@
       <c r="I264" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" s="14" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
         <v>497</v>
       </c>
@@ -11204,8 +13101,11 @@
       <c r="I265" s="11" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" s="14" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
         <v>499</v>
       </c>
@@ -11234,8 +13134,11 @@
       <c r="I266" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" s="14" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>501</v>
       </c>
@@ -11264,8 +13167,11 @@
       <c r="I267" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" s="14" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
         <v>503</v>
       </c>
@@ -11294,8 +13200,11 @@
       <c r="I268" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" s="14" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
         <v>505</v>
       </c>
@@ -11324,8 +13233,11 @@
       <c r="I269" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" s="14" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
         <v>507</v>
       </c>
@@ -11354,8 +13266,11 @@
       <c r="I270" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" s="14" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
         <v>509</v>
       </c>
@@ -11384,8 +13299,11 @@
       <c r="I271" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
         <v>511</v>
       </c>
@@ -11414,8 +13332,11 @@
       <c r="I272" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" s="14" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
         <v>513</v>
       </c>
@@ -11444,8 +13365,11 @@
       <c r="I273" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" s="14" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
         <v>515</v>
       </c>
@@ -11474,8 +13398,11 @@
       <c r="I274" s="11" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" s="14" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
         <v>517</v>
       </c>
@@ -11504,8 +13431,11 @@
       <c r="I275" s="11" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" s="14" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
         <v>519</v>
       </c>
@@ -11534,8 +13464,11 @@
       <c r="I276" s="11" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" s="14" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
         <v>521</v>
       </c>
@@ -11564,8 +13497,11 @@
       <c r="I277" s="11" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
         <v>523</v>
       </c>
@@ -11594,8 +13530,11 @@
       <c r="I278" s="11" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" s="14" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>525</v>
       </c>
@@ -11624,8 +13563,11 @@
       <c r="I280" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" s="14" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
         <v>527</v>
       </c>
@@ -11654,8 +13596,11 @@
       <c r="I281" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" s="14" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
         <v>529</v>
       </c>
@@ -11684,8 +13629,11 @@
       <c r="I282" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
         <v>531</v>
       </c>
@@ -11714,8 +13662,11 @@
       <c r="I283" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" s="14" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>533</v>
       </c>
@@ -11744,8 +13695,11 @@
       <c r="I284" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" s="14" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>535</v>
       </c>
@@ -11774,8 +13728,11 @@
       <c r="I285" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" s="14" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
         <v>537</v>
       </c>
@@ -11804,8 +13761,11 @@
       <c r="I286" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
         <v>539</v>
       </c>
@@ -11834,8 +13794,11 @@
       <c r="I287" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" s="14" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>540</v>
       </c>
@@ -11864,8 +13827,11 @@
       <c r="I288" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" s="14" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
         <v>542</v>
       </c>
@@ -11894,8 +13860,11 @@
       <c r="I289" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" s="14" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
         <v>544</v>
       </c>
@@ -11924,8 +13893,11 @@
       <c r="I290" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" s="14" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
         <v>546</v>
       </c>
@@ -11954,8 +13926,11 @@
       <c r="I291" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" s="14" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
         <v>548</v>
       </c>
@@ -11984,8 +13959,11 @@
       <c r="I292" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" s="14" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
         <v>550</v>
       </c>
@@ -12014,8 +13992,11 @@
       <c r="I293" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" s="14" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
         <v>552</v>
       </c>
@@ -12044,8 +14025,11 @@
       <c r="I294" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" s="14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
         <v>554</v>
       </c>
@@ -12074,8 +14058,11 @@
       <c r="I297" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" s="14" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
         <v>556</v>
       </c>
@@ -12104,8 +14091,11 @@
       <c r="I300" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" s="14" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
         <v>558</v>
       </c>
@@ -12134,8 +14124,11 @@
       <c r="I301" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
         <v>560</v>
       </c>
@@ -12164,8 +14157,11 @@
       <c r="I302" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" s="14" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
         <v>562</v>
       </c>
@@ -12194,8 +14190,11 @@
       <c r="I303" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" s="14" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
         <v>564</v>
       </c>
@@ -12224,8 +14223,11 @@
       <c r="I304" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" s="14" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
         <v>566</v>
       </c>
@@ -12254,8 +14256,11 @@
       <c r="I305" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" s="14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
         <v>568</v>
       </c>
@@ -12284,8 +14289,11 @@
       <c r="I306" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" s="14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
         <v>570</v>
       </c>
@@ -12314,8 +14322,11 @@
       <c r="I307" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" s="14" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
         <v>572</v>
       </c>
@@ -12344,8 +14355,11 @@
       <c r="I308" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" s="14" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
         <v>574</v>
       </c>
@@ -12374,8 +14388,11 @@
       <c r="I309" s="11" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" s="14" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
         <v>576</v>
       </c>
@@ -12404,8 +14421,11 @@
       <c r="I310" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
         <v>578</v>
       </c>
@@ -12434,8 +14454,11 @@
       <c r="I311" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
         <v>580</v>
       </c>
@@ -12464,8 +14487,11 @@
       <c r="I312" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
         <v>582</v>
       </c>
@@ -12494,8 +14520,11 @@
       <c r="I313" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" s="14" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
         <v>584</v>
       </c>
@@ -12524,8 +14553,11 @@
       <c r="I314" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" s="14" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
         <v>586</v>
       </c>
@@ -12554,8 +14586,11 @@
       <c r="I315" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" s="14" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
         <v>588</v>
       </c>
@@ -12584,8 +14619,11 @@
       <c r="I316" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" s="14" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
         <v>590</v>
       </c>
@@ -12614,8 +14652,11 @@
       <c r="I317" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" s="14" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
         <v>592</v>
       </c>
@@ -12644,8 +14685,11 @@
       <c r="I318" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" s="14" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
         <v>594</v>
       </c>
@@ -12674,8 +14718,11 @@
       <c r="I319" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" s="14" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
         <v>596</v>
       </c>
@@ -12704,8 +14751,11 @@
       <c r="I320" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" s="14" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
         <v>598</v>
       </c>
@@ -12734,8 +14784,11 @@
       <c r="I321" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" s="14" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
         <v>600</v>
       </c>
@@ -12764,8 +14817,11 @@
       <c r="I322" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" s="14" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
         <v>602</v>
       </c>
@@ -12794,8 +14850,11 @@
       <c r="I323" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" s="14" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
         <v>604</v>
       </c>
@@ -12824,8 +14883,11 @@
       <c r="I324" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" s="14" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
         <v>606</v>
       </c>
@@ -12854,8 +14916,11 @@
       <c r="I325" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" s="14" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
         <v>608</v>
       </c>
@@ -12884,8 +14949,11 @@
       <c r="I326" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" s="14" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
         <v>610</v>
       </c>
@@ -12914,8 +14982,11 @@
       <c r="I327" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" s="14" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
         <v>612</v>
       </c>
@@ -12944,8 +15015,11 @@
       <c r="I328" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" s="14" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
         <v>614</v>
       </c>
@@ -12974,8 +15048,11 @@
       <c r="I329" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" s="14" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
         <v>616</v>
       </c>
@@ -13004,8 +15081,11 @@
       <c r="I330" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" s="14" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
         <v>618</v>
       </c>
@@ -13034,8 +15114,11 @@
       <c r="I331" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" s="14" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
         <v>620</v>
       </c>
@@ -13064,8 +15147,11 @@
       <c r="I332" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" s="14" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
         <v>622</v>
       </c>
@@ -13094,8 +15180,11 @@
       <c r="I333" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" s="14" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
         <v>624</v>
       </c>
@@ -13124,8 +15213,11 @@
       <c r="I334" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" s="14" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
         <v>626</v>
       </c>
@@ -13154,8 +15246,11 @@
       <c r="I335" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" s="14" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
         <v>628</v>
       </c>
@@ -13184,8 +15279,11 @@
       <c r="I336" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" s="14" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
         <v>630</v>
       </c>
@@ -13214,8 +15312,11 @@
       <c r="I337" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" s="14" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
         <v>632</v>
       </c>
@@ -13244,8 +15345,11 @@
       <c r="I338" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" s="14" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
         <v>634</v>
       </c>
@@ -13274,8 +15378,11 @@
       <c r="I341" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" s="14" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
         <v>636</v>
       </c>
@@ -13304,8 +15411,11 @@
       <c r="I342" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" s="14" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
         <v>638</v>
       </c>
@@ -13334,8 +15444,11 @@
       <c r="I343" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" s="14" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
         <v>640</v>
       </c>
@@ -13364,8 +15477,11 @@
       <c r="I344" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" s="14" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
         <v>642</v>
       </c>
@@ -13394,8 +15510,11 @@
       <c r="I346" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" s="14" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
         <v>644</v>
       </c>
@@ -13424,8 +15543,11 @@
       <c r="I347" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
         <v>646</v>
       </c>
@@ -13454,8 +15576,11 @@
       <c r="I348" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" s="14" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
         <v>648</v>
       </c>
@@ -13484,8 +15609,11 @@
       <c r="I349" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
         <v>650</v>
       </c>
@@ -13514,8 +15642,11 @@
       <c r="I350" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" s="14" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
         <v>652</v>
       </c>
@@ -13544,8 +15675,11 @@
       <c r="I351" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" s="14" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
         <v>654</v>
       </c>
@@ -13574,8 +15708,11 @@
       <c r="I352" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" s="14" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
         <v>656</v>
       </c>
@@ -13604,8 +15741,11 @@
       <c r="I353" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
         <v>658</v>
       </c>
@@ -13634,8 +15774,11 @@
       <c r="I354" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" s="14" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
         <v>659</v>
       </c>
@@ -13664,8 +15807,11 @@
       <c r="I355" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" s="14" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
         <v>661</v>
       </c>
@@ -13694,8 +15840,11 @@
       <c r="I356" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" s="14" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
         <v>663</v>
       </c>
@@ -13724,8 +15873,11 @@
       <c r="I357" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" s="14" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
         <v>665</v>
       </c>
@@ -13754,8 +15906,11 @@
       <c r="I358" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" s="14" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
         <v>667</v>
       </c>
@@ -13784,8 +15939,11 @@
       <c r="I359" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" s="14" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
         <v>669</v>
       </c>
@@ -13814,8 +15972,11 @@
       <c r="I360" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" s="14" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
         <v>671</v>
       </c>
@@ -13844,8 +16005,11 @@
       <c r="I361" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" s="14" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
         <v>673</v>
       </c>
@@ -13874,8 +16038,11 @@
       <c r="I362" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" s="14" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
         <v>675</v>
       </c>
@@ -13904,8 +16071,11 @@
       <c r="I363" s="11" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" s="14" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
         <v>1083</v>
       </c>
@@ -13934,8 +16104,11 @@
       <c r="I364" s="11" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" s="14" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
         <v>678</v>
       </c>
@@ -13964,8 +16137,11 @@
       <c r="I366" s="11" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" s="14" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
         <v>680</v>
       </c>
@@ -13994,8 +16170,11 @@
       <c r="I367" s="11" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" s="14" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
         <v>682</v>
       </c>
@@ -14024,8 +16203,11 @@
       <c r="I369" s="11" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" s="14" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
         <v>684</v>
       </c>
@@ -14054,8 +16236,11 @@
       <c r="I370" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" s="14" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
         <v>686</v>
       </c>
@@ -14084,8 +16269,11 @@
       <c r="I371" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" s="14" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
         <v>688</v>
       </c>
@@ -14114,8 +16302,11 @@
       <c r="I372" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" s="14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
         <v>690</v>
       </c>
@@ -14144,8 +16335,11 @@
       <c r="I373" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" s="14" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
         <v>692</v>
       </c>
@@ -14174,8 +16368,11 @@
       <c r="I374" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" s="14" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
         <v>694</v>
       </c>
@@ -14204,8 +16401,11 @@
       <c r="I375" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" s="14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
         <v>696</v>
       </c>
@@ -14234,8 +16434,11 @@
       <c r="I376" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" s="14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
         <v>698</v>
       </c>
@@ -14264,8 +16467,11 @@
       <c r="I377" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" s="14" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
         <v>700</v>
       </c>
@@ -14294,8 +16500,11 @@
       <c r="I378" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" s="14" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
         <v>702</v>
       </c>
@@ -14324,8 +16533,11 @@
       <c r="I379" s="11" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" s="14" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
         <v>704</v>
       </c>
@@ -14354,8 +16566,11 @@
       <c r="I380" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" s="14" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
         <v>706</v>
       </c>
@@ -14384,8 +16599,11 @@
       <c r="I381" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
         <v>708</v>
       </c>
@@ -14414,8 +16632,11 @@
       <c r="I382" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
         <v>710</v>
       </c>
@@ -14444,8 +16665,11 @@
       <c r="I383" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
         <v>712</v>
       </c>
@@ -14474,8 +16698,11 @@
       <c r="I384" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" s="14" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
         <v>714</v>
       </c>
@@ -14504,8 +16731,11 @@
       <c r="I385" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
         <v>716</v>
       </c>
@@ -14534,8 +16764,11 @@
       <c r="I386" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="11" t="s">
         <v>718</v>
       </c>
@@ -14564,8 +16797,11 @@
       <c r="I387" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387" s="14" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
         <v>720</v>
       </c>
@@ -14594,8 +16830,11 @@
       <c r="I388" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
         <v>722</v>
       </c>
@@ -14624,8 +16863,11 @@
       <c r="I389" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389" s="14" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
         <v>724</v>
       </c>
@@ -14654,8 +16896,11 @@
       <c r="I390" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J390" s="14" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
         <v>726</v>
       </c>
@@ -14684,8 +16929,11 @@
       <c r="I391" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J391" s="14" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
         <v>728</v>
       </c>
@@ -14714,8 +16962,11 @@
       <c r="I392" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J392" s="14" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
         <v>730</v>
       </c>
@@ -14744,8 +16995,11 @@
       <c r="I393" s="11" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J393" s="14" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
         <v>732</v>
       </c>
@@ -14774,8 +17028,11 @@
       <c r="I394" s="11" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J394" s="14" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
         <v>734</v>
       </c>
@@ -14804,8 +17061,11 @@
       <c r="I395" s="11" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J395" s="14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="11" t="s">
         <v>736</v>
       </c>
@@ -14834,8 +17094,11 @@
       <c r="I396" s="11" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J396" s="14" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="11" t="s">
         <v>738</v>
       </c>
@@ -14864,8 +17127,11 @@
       <c r="I397" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J397" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
         <v>740</v>
       </c>
@@ -14894,8 +17160,11 @@
       <c r="I398" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J398" s="14" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
         <v>742</v>
       </c>
@@ -14924,8 +17193,11 @@
       <c r="I399" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J399" s="14" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="11" t="s">
         <v>744</v>
       </c>
@@ -14954,8 +17226,11 @@
       <c r="I400" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J400" s="14" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="11" t="s">
         <v>746</v>
       </c>
@@ -14984,8 +17259,11 @@
       <c r="I401" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J401" s="14" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
         <v>748</v>
       </c>
@@ -15014,8 +17292,11 @@
       <c r="I402" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J402" s="14" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
         <v>750</v>
       </c>
@@ -15044,8 +17325,11 @@
       <c r="I404" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J404" s="14" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="11" t="s">
         <v>752</v>
       </c>
@@ -15074,8 +17358,11 @@
       <c r="I406" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J406" s="14" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
         <v>754</v>
       </c>
@@ -15104,8 +17391,11 @@
       <c r="I407" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J407" s="14" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="11" t="s">
         <v>756</v>
       </c>
@@ -15134,8 +17424,11 @@
       <c r="I408" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J408" s="14" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="11" t="s">
         <v>758</v>
       </c>
@@ -15164,8 +17457,11 @@
       <c r="I409" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J409" s="14" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
         <v>760</v>
       </c>
@@ -15194,8 +17490,11 @@
       <c r="I410" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J410" s="14" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="11" t="s">
         <v>762</v>
       </c>
@@ -15224,8 +17523,11 @@
       <c r="I411" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J411" s="14" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
         <v>764</v>
       </c>
@@ -15254,8 +17556,11 @@
       <c r="I412" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J412" s="14" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
         <v>766</v>
       </c>
@@ -15284,8 +17589,11 @@
       <c r="I413" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J413" s="14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="11" t="s">
         <v>768</v>
       </c>
@@ -15314,8 +17622,11 @@
       <c r="I414" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J414" s="14" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="11" t="s">
         <v>770</v>
       </c>
@@ -15344,8 +17655,11 @@
       <c r="I415" s="11" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J415" s="14" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="11" t="s">
         <v>772</v>
       </c>
@@ -15374,8 +17688,11 @@
       <c r="I416" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J416" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
         <v>774</v>
       </c>
@@ -15404,8 +17721,11 @@
       <c r="I417" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J417" s="14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="11" t="s">
         <v>776</v>
       </c>
@@ -15434,8 +17754,11 @@
       <c r="I418" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J418" s="14" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="11" t="s">
         <v>778</v>
       </c>
@@ -15464,8 +17787,11 @@
       <c r="I419" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J419" s="14" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
         <v>780</v>
       </c>
@@ -15494,8 +17820,11 @@
       <c r="I420" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J420" s="14" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
         <v>782</v>
       </c>
@@ -15524,8 +17853,11 @@
       <c r="I421" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J421" s="14" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="11" t="s">
         <v>784</v>
       </c>
@@ -15554,8 +17886,11 @@
       <c r="I422" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J422" s="14" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="11" t="s">
         <v>786</v>
       </c>
@@ -15584,8 +17919,11 @@
       <c r="I423" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J423" s="14" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="11" t="s">
         <v>788</v>
       </c>
@@ -15614,8 +17952,11 @@
       <c r="I424" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J424" s="14" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="11" t="s">
         <v>790</v>
       </c>
@@ -15644,8 +17985,11 @@
       <c r="I425" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J425" s="14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="11" t="s">
         <v>792</v>
       </c>
@@ -15674,8 +18018,11 @@
       <c r="I426" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J426" s="14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
         <v>794</v>
       </c>
@@ -15704,8 +18051,11 @@
       <c r="I428" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J428" s="14" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="11" t="s">
         <v>796</v>
       </c>
@@ -15734,8 +18084,11 @@
       <c r="I430" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J430" s="14" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="11" t="s">
         <v>798</v>
       </c>
@@ -15764,8 +18117,11 @@
       <c r="I431" s="11" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J431" s="14" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="11" t="s">
         <v>800</v>
       </c>
@@ -15794,8 +18150,11 @@
       <c r="I432" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J432" s="14" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="11" t="s">
         <v>802</v>
       </c>
@@ -15824,8 +18183,11 @@
       <c r="I433" s="11" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J433" s="14" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="11" t="s">
         <v>804</v>
       </c>
@@ -15854,8 +18216,11 @@
       <c r="I434" s="11" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J434" s="14" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="11" t="s">
         <v>806</v>
       </c>
@@ -15884,8 +18249,11 @@
       <c r="I435" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J435" s="14" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="11" t="s">
         <v>808</v>
       </c>
@@ -15914,8 +18282,11 @@
       <c r="I436" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J436" s="14" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="11" t="s">
         <v>810</v>
       </c>
@@ -15944,8 +18315,11 @@
       <c r="I437" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J437" s="14" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="11" t="s">
         <v>812</v>
       </c>
@@ -15974,8 +18348,11 @@
       <c r="I438" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J438" s="14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="11" t="s">
         <v>814</v>
       </c>
@@ -16004,8 +18381,11 @@
       <c r="I439" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J439" s="14" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="11" t="s">
         <v>816</v>
       </c>
@@ -16034,8 +18414,11 @@
       <c r="I440" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J440" s="14" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="11" t="s">
         <v>818</v>
       </c>
@@ -16064,8 +18447,11 @@
       <c r="I441" s="11" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J441" s="14" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="11" t="s">
         <v>820</v>
       </c>
@@ -16094,8 +18480,11 @@
       <c r="I442" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J442" s="14" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="11" t="s">
         <v>822</v>
       </c>
@@ -16124,8 +18513,11 @@
       <c r="I443" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J443" s="14" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="11" t="s">
         <v>824</v>
       </c>
@@ -16154,8 +18546,11 @@
       <c r="I444" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J444" s="14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="11" t="s">
         <v>826</v>
       </c>
@@ -16184,8 +18579,11 @@
       <c r="I445" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J445" s="14" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="11" t="s">
         <v>828</v>
       </c>
@@ -16214,8 +18612,11 @@
       <c r="I446" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J446" s="14" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="11" t="s">
         <v>830</v>
       </c>
@@ -16244,8 +18645,11 @@
       <c r="I447" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J447" s="14" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="11" t="s">
         <v>832</v>
       </c>
@@ -16274,8 +18678,11 @@
       <c r="I448" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J448" s="14" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="11" t="s">
         <v>834</v>
       </c>
@@ -16304,8 +18711,11 @@
       <c r="I449" s="11" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J449" s="14" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="11" t="s">
         <v>836</v>
       </c>
@@ -16334,8 +18744,11 @@
       <c r="I450" s="11" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J450" s="14" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="11" t="s">
         <v>838</v>
       </c>
@@ -16364,8 +18777,11 @@
       <c r="I451" s="11" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J451" s="14" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="11" t="s">
         <v>840</v>
       </c>
@@ -16394,8 +18810,11 @@
       <c r="I452" s="11" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J452" s="14" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="11" t="s">
         <v>842</v>
       </c>
@@ -16424,8 +18843,11 @@
       <c r="I453" s="11" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J453" s="14" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="11" t="s">
         <v>844</v>
       </c>
@@ -16454,8 +18876,11 @@
       <c r="I454" s="11" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J454" s="14" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="11" t="s">
         <v>846</v>
       </c>
@@ -16484,8 +18909,11 @@
       <c r="I455" s="11" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J455" s="14" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="11" t="s">
         <v>848</v>
       </c>
@@ -16514,8 +18942,11 @@
       <c r="I456" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J456" s="14" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="11" t="s">
         <v>850</v>
       </c>
@@ -16544,8 +18975,11 @@
       <c r="I457" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J457" s="14" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="11" t="s">
         <v>852</v>
       </c>
@@ -16574,8 +19008,11 @@
       <c r="I458" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J458" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="11" t="s">
         <v>854</v>
       </c>
@@ -16604,8 +19041,11 @@
       <c r="I459" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J459" s="14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="11" t="s">
         <v>856</v>
       </c>
@@ -16634,8 +19074,11 @@
       <c r="I460" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J460" s="14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="11" t="s">
         <v>858</v>
       </c>
@@ -16664,8 +19107,11 @@
       <c r="I461" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J461" s="14" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="11" t="s">
         <v>860</v>
       </c>
@@ -16694,8 +19140,11 @@
       <c r="I462" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J462" s="14" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="11" t="s">
         <v>862</v>
       </c>
@@ -16724,8 +19173,11 @@
       <c r="I463" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J463" s="14" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="11" t="s">
         <v>864</v>
       </c>
@@ -16754,8 +19206,11 @@
       <c r="I464" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J464" s="14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="11" t="s">
         <v>866</v>
       </c>
@@ -16784,8 +19239,11 @@
       <c r="I465" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J465" s="14" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="11" t="s">
         <v>868</v>
       </c>
@@ -16814,8 +19272,11 @@
       <c r="I467" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J467" s="14" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="11" t="s">
         <v>870</v>
       </c>
@@ -16844,8 +19305,11 @@
       <c r="I468" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J468" s="14" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="11" t="s">
         <v>872</v>
       </c>
@@ -16874,8 +19338,11 @@
       <c r="I469" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J469" s="14" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="11" t="s">
         <v>874</v>
       </c>
@@ -16904,8 +19371,11 @@
       <c r="I470" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J470" s="14" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="11" t="s">
         <v>876</v>
       </c>
@@ -16934,8 +19404,11 @@
       <c r="I471" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J471" s="14" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="11" t="s">
         <v>878</v>
       </c>
@@ -16964,8 +19437,11 @@
       <c r="I472" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J472" s="14" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="11" t="s">
         <v>880</v>
       </c>
@@ -16994,8 +19470,11 @@
       <c r="I473" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J473" s="14" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="11" t="s">
         <v>882</v>
       </c>
@@ -17024,8 +19503,11 @@
       <c r="I474" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J474" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="11" t="s">
         <v>884</v>
       </c>
@@ -17054,8 +19536,11 @@
       <c r="I475" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J475" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="11" t="s">
         <v>886</v>
       </c>
@@ -17084,8 +19569,11 @@
       <c r="I476" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J476" s="14" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="11" t="s">
         <v>888</v>
       </c>
@@ -17114,8 +19602,11 @@
       <c r="I477" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J477" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="11" t="s">
         <v>890</v>
       </c>
@@ -17144,8 +19635,11 @@
       <c r="I478" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J478" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="11" t="s">
         <v>892</v>
       </c>
@@ -17174,8 +19668,11 @@
       <c r="I479" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J479" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="11" t="s">
         <v>894</v>
       </c>
@@ -17204,8 +19701,11 @@
       <c r="I480" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J480" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="11" t="s">
         <v>896</v>
       </c>
@@ -17234,8 +19734,11 @@
       <c r="I481" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J481" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="11" t="s">
         <v>898</v>
       </c>
@@ -17264,8 +19767,11 @@
       <c r="I482" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="J482" s="14" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A483" s="11" t="s">
         <v>900</v>
       </c>
@@ -17294,8 +19800,11 @@
       <c r="I483" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J483" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="11" t="s">
         <v>902</v>
       </c>
@@ -17324,8 +19833,11 @@
       <c r="I484" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J484" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="11" t="s">
         <v>904</v>
       </c>
@@ -17354,8 +19866,11 @@
       <c r="I485" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J485" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="11" t="s">
         <v>906</v>
       </c>
@@ -17384,8 +19899,11 @@
       <c r="I486" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J486" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="11" t="s">
         <v>908</v>
       </c>
@@ -17414,8 +19932,11 @@
       <c r="I487" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J487" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="11" t="s">
         <v>910</v>
       </c>
@@ -17444,8 +19965,11 @@
       <c r="I488" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J488" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="11" t="s">
         <v>912</v>
       </c>
@@ -17474,8 +19998,11 @@
       <c r="I489" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J489" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="11" t="s">
         <v>914</v>
       </c>
@@ -17504,8 +20031,11 @@
       <c r="I490" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J490" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="11" t="s">
         <v>916</v>
       </c>
@@ -17534,8 +20064,11 @@
       <c r="I491" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J491" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="11" t="s">
         <v>918</v>
       </c>
@@ -17564,8 +20097,11 @@
       <c r="I492" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J492" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="11" t="s">
         <v>920</v>
       </c>
@@ -17594,8 +20130,11 @@
       <c r="I493" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J493" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="11" t="s">
         <v>922</v>
       </c>
@@ -17624,8 +20163,11 @@
       <c r="I494" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J494" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="11" t="s">
         <v>924</v>
       </c>
@@ -17654,8 +20196,11 @@
       <c r="I495" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J495" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="11" t="s">
         <v>926</v>
       </c>
@@ -17684,8 +20229,11 @@
       <c r="I496" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J496" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="11" t="s">
         <v>928</v>
       </c>
@@ -17714,8 +20262,11 @@
       <c r="I497" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J497" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="11" t="s">
         <v>930</v>
       </c>
@@ -17744,8 +20295,11 @@
       <c r="I498" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J498" s="14" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="11" t="s">
         <v>932</v>
       </c>
@@ -17774,8 +20328,11 @@
       <c r="I499" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J499" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="11" t="s">
         <v>934</v>
       </c>
@@ -17804,8 +20361,11 @@
       <c r="I500" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J500" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="11" t="s">
         <v>936</v>
       </c>
@@ -17834,8 +20394,11 @@
       <c r="I501" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J501" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="11" t="s">
         <v>938</v>
       </c>
@@ -17864,8 +20427,11 @@
       <c r="I502" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J502" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="11" t="s">
         <v>940</v>
       </c>
@@ -17894,8 +20460,11 @@
       <c r="I503" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J503" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="11" t="s">
         <v>942</v>
       </c>
@@ -17924,8 +20493,11 @@
       <c r="I504" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J504" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="11" t="s">
         <v>944</v>
       </c>
@@ -17954,8 +20526,11 @@
       <c r="I505" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J505" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="11" t="s">
         <v>946</v>
       </c>
@@ -17984,8 +20559,11 @@
       <c r="I506" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J506" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="11" t="s">
         <v>948</v>
       </c>
@@ -18014,8 +20592,11 @@
       <c r="I507" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J507" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="11" t="s">
         <v>950</v>
       </c>
@@ -18044,8 +20625,11 @@
       <c r="I508" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J508" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="11" t="s">
         <v>952</v>
       </c>
@@ -18074,8 +20658,11 @@
       <c r="I509" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J509" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="11" t="s">
         <v>954</v>
       </c>
@@ -18104,8 +20691,11 @@
       <c r="I510" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J510" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="11" t="s">
         <v>956</v>
       </c>
@@ -18134,8 +20724,11 @@
       <c r="I511" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J511" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="11" t="s">
         <v>958</v>
       </c>
@@ -18164,8 +20757,11 @@
       <c r="I512" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J512" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="11" t="s">
         <v>960</v>
       </c>
@@ -18194,8 +20790,11 @@
       <c r="I513" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J513" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="11" t="s">
         <v>962</v>
       </c>
@@ -18224,8 +20823,11 @@
       <c r="I514" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J514" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="11" t="s">
         <v>964</v>
       </c>
@@ -18254,8 +20856,11 @@
       <c r="I515" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J515" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="11" t="s">
         <v>966</v>
       </c>
@@ -18284,8 +20889,11 @@
       <c r="I516" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J516" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="11" t="s">
         <v>968</v>
       </c>
@@ -18314,8 +20922,11 @@
       <c r="I517" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J517" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="11" t="s">
         <v>970</v>
       </c>
@@ -18344,8 +20955,11 @@
       <c r="I518" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J518" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="11" t="s">
         <v>972</v>
       </c>
@@ -18374,8 +20988,11 @@
       <c r="I519" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J519" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="11" t="s">
         <v>974</v>
       </c>
@@ -18404,8 +21021,11 @@
       <c r="I520" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J520" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="11" t="s">
         <v>976</v>
       </c>
@@ -18434,8 +21054,11 @@
       <c r="I521" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J521" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="11" t="s">
         <v>978</v>
       </c>
@@ -18464,8 +21087,11 @@
       <c r="I522" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J522" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="11" t="s">
         <v>980</v>
       </c>
@@ -18494,8 +21120,11 @@
       <c r="I523" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J523" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="11" t="s">
         <v>982</v>
       </c>
@@ -18524,8 +21153,11 @@
       <c r="I524" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J524" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="11" t="s">
         <v>984</v>
       </c>
@@ -18554,8 +21186,11 @@
       <c r="I525" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J525" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="11" t="s">
         <v>986</v>
       </c>
@@ -18584,8 +21219,11 @@
       <c r="I526" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J526" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="11" t="s">
         <v>988</v>
       </c>
@@ -18614,8 +21252,11 @@
       <c r="I527" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J527" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="11" t="s">
         <v>990</v>
       </c>
@@ -18644,8 +21285,11 @@
       <c r="I528" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J528" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="11" t="s">
         <v>992</v>
       </c>
@@ -18674,8 +21318,11 @@
       <c r="I529" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J529" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="11" t="s">
         <v>994</v>
       </c>
@@ -18704,8 +21351,11 @@
       <c r="I530" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J530" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="11" t="s">
         <v>996</v>
       </c>
@@ -18734,8 +21384,11 @@
       <c r="I531" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J531" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="11" t="s">
         <v>998</v>
       </c>
@@ -18764,8 +21417,11 @@
       <c r="I532" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J532" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="11" t="s">
         <v>1000</v>
       </c>
@@ -18794,8 +21450,11 @@
       <c r="I533" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J533" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="11" t="s">
         <v>1002</v>
       </c>
@@ -18824,8 +21483,11 @@
       <c r="I534" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J534" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="11" t="s">
         <v>1004</v>
       </c>
@@ -18854,8 +21516,11 @@
       <c r="I535" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J535" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="11" t="s">
         <v>1006</v>
       </c>
@@ -18884,8 +21549,11 @@
       <c r="I536" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J536" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="11" t="s">
         <v>1008</v>
       </c>
@@ -18914,8 +21582,11 @@
       <c r="I537" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J537" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="11" t="s">
         <v>1010</v>
       </c>
@@ -18944,8 +21615,11 @@
       <c r="I538" s="11" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J538" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="11" t="s">
         <v>1012</v>
       </c>
@@ -18974,8 +21648,11 @@
       <c r="I539" s="11" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J539" s="14" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="11" t="s">
         <v>1014</v>
       </c>
@@ -19004,8 +21681,11 @@
       <c r="I540" s="11" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J540" s="14" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="11" t="s">
         <v>1016</v>
       </c>
@@ -19034,8 +21714,11 @@
       <c r="I541" s="11" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J541" s="14" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="11" t="s">
         <v>1018</v>
       </c>
@@ -19064,8 +21747,11 @@
       <c r="I542" s="11" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J542" s="14" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="11" t="s">
         <v>1020</v>
       </c>
@@ -19094,8 +21780,11 @@
       <c r="I543" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J543" s="14" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="11" t="s">
         <v>1022</v>
       </c>
@@ -19124,8 +21813,11 @@
       <c r="I544" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J544" s="14" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="11" t="s">
         <v>1024</v>
       </c>
@@ -19154,8 +21846,11 @@
       <c r="I545" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J545" s="14" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="11" t="s">
         <v>1026</v>
       </c>
@@ -19184,8 +21879,11 @@
       <c r="I546" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J546" s="14" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="11" t="s">
         <v>1028</v>
       </c>
@@ -19214,8 +21912,11 @@
       <c r="I547" s="11" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J547" s="14" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="11" t="s">
         <v>1030</v>
       </c>
@@ -19244,8 +21945,11 @@
       <c r="I554" s="11" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J554" s="14" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="11" t="s">
         <v>1032</v>
       </c>
@@ -19274,8 +21978,11 @@
       <c r="I555" s="11" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J555" s="14" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="11" t="s">
         <v>1034</v>
       </c>
@@ -19304,8 +22011,11 @@
       <c r="I556" s="11" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J556" s="14" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="11" t="s">
         <v>1036</v>
       </c>
@@ -19334,8 +22044,11 @@
       <c r="I557" s="11" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J557" s="14" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="11" t="s">
         <v>1038</v>
       </c>
@@ -19364,8 +22077,11 @@
       <c r="I558" s="11" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J558" s="14" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="11" t="s">
         <v>1040</v>
       </c>
@@ -19393,6 +22109,9 @@
       </c>
       <c r="I559" s="11" t="s">
         <v>1081</v>
+      </c>
+      <c r="J559" s="14" t="s">
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
